--- a/Bugs Lingva/bug16/bug16.xlsx
+++ b/Bugs Lingva/bug16/bug16.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Issue type</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Contacts block/"Enter email" field</t>
+  </si>
+  <si>
+    <t>6. Click the "Send" button</t>
   </si>
 </sst>
 </file>
@@ -822,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,67 +1017,71 @@
       <c r="D9" s="11"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:19" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="25"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:19" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:19" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C14" s="21"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:19" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
@@ -1151,9 +1158,14 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="K3">
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Critical">

--- a/Bugs Lingva/bug16/bug16.xlsx
+++ b/Bugs Lingva/bug16/bug16.xlsx
@@ -117,9 +117,6 @@
     <t>1. Open: "https://bit.ly/3OtwLnA"</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Error message</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>6. Click the "Send" button</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,7 +919,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>24</v>
@@ -934,19 +934,19 @@
         <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="4">
         <v>3.1</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>12</v>
@@ -985,7 +985,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="8"/>
@@ -994,7 +994,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="24"/>
       <c r="C7" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="8"/>
@@ -1003,7 +1003,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="24"/>
       <c r="C8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="8"/>
@@ -1012,7 +1012,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="24"/>
       <c r="C9" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="8"/>
@@ -1021,7 +1021,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="24"/>
       <c r="C10" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
@@ -1030,7 +1030,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="8"/>
@@ -1041,7 +1041,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="11"/>
     </row>
@@ -1051,14 +1051,14 @@
         <v>17</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="11"/>

--- a/Bugs Lingva/bug16/bug16.xlsx
+++ b/Bugs Lingva/bug16/bug16.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Issue type</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>1. Open: "https://bit.ly/3OtwLnA"</t>
-  </si>
-  <si>
     <t>Error message</t>
   </si>
   <si>
@@ -154,6 +151,12 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>1. User should be registered to Lingva</t>
+  </si>
+  <si>
+    <t>2. Open: "https://bit.ly/3OtwLnA"</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -440,9 +443,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -451,6 +451,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -825,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,8 +924,8 @@
       <c r="B3" s="10">
         <v>16</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>42</v>
+      <c r="C3" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>24</v>
@@ -934,10 +940,10 @@
         <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="4">
         <v>3.1</v>
@@ -946,7 +952,7 @@
         <v>31</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>12</v>
@@ -969,203 +975,212 @@
       <c r="C4" s="9"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>32</v>
+      <c r="C5" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
-      <c r="B6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>34</v>
+      <c r="B6" s="26"/>
+      <c r="C6" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="20" t="s">
-        <v>35</v>
+      <c r="B7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="20" t="s">
-        <v>36</v>
+      <c r="B8" s="25"/>
+      <c r="C8" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="20" t="s">
-        <v>37</v>
+      <c r="B9" s="25"/>
+      <c r="C9" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="20" t="s">
-        <v>38</v>
+      <c r="B10" s="25"/>
+      <c r="C10" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:19" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>44</v>
+      <c r="C11" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:19" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
-      <c r="B12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>39</v>
+      <c r="B12" s="26"/>
+      <c r="C12" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:19" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>28</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:19" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:B11"/>
+  <mergeCells count="2">
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="K3">
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Critical">
